--- a/boss城市编码.xlsx
+++ b/boss城市编码.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1173,18 +1173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1649,19 +1646,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1670,7 +1667,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1794,10 +1791,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2148,15 +2151,16 @@
   <dimension ref="A1:B374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A1" sqref="A1:B374"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="29.5" customWidth="1"/>
+    <col min="1" max="1" width="20.2727272727273" customWidth="1"/>
+    <col min="2" max="2" width="25.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" ht="16.5" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2164,2987 +2168,2987 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    <row r="2" ht="16.5" spans="1:2">
+      <c r="A2" s="2">
         <v>101070300</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
+    <row r="3" ht="16.5" spans="1:2">
+      <c r="A3" s="2">
         <v>101081200</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
+    <row r="4" ht="16.5" spans="1:2">
+      <c r="A4" s="2">
         <v>101110700</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
+    <row r="5" ht="16.5" spans="1:2">
+      <c r="A5" s="2">
         <v>101131000</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
+    <row r="6" ht="16.5" spans="1:2">
+      <c r="A6" s="2">
         <v>101131500</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
+    <row r="7" ht="16.5" spans="1:2">
+      <c r="A7" s="2">
         <v>101131700</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
+    <row r="8" ht="16.5" spans="1:2">
+      <c r="A8" s="2">
         <v>101140700</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
+    <row r="9" ht="16.5" spans="1:2">
+      <c r="A9" s="2">
         <v>101180200</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
+    <row r="10" ht="16.5" spans="1:2">
+      <c r="A10" s="2">
         <v>101220600</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
+    <row r="11" ht="16.5" spans="1:2">
+      <c r="A11" s="2">
         <v>101260300</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
+    <row r="12" ht="16.5" spans="1:2">
+      <c r="A12" s="2">
         <v>101271900</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
+    <row r="13" ht="16.5" spans="1:2">
+      <c r="A13" s="2">
         <v>101330100</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
+    <row r="14" ht="16.5" spans="1:2">
+      <c r="A14" s="2">
         <v>101010100</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
+    <row r="15" ht="16.5" spans="1:2">
+      <c r="A15" s="2">
         <v>101060500</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
+    <row r="16" ht="16.5" spans="1:2">
+      <c r="A16" s="2">
         <v>101060800</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
+    <row r="17" ht="16.5" spans="1:2">
+      <c r="A17" s="2">
         <v>101070500</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
+    <row r="18" ht="16.5" spans="1:2">
+      <c r="A18" s="2">
         <v>101080200</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
+    <row r="19" ht="16.5" spans="1:2">
+      <c r="A19" s="2">
         <v>101080800</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
+    <row r="20" ht="16.5" spans="1:2">
+      <c r="A20" s="2">
         <v>101090200</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
+    <row r="21" ht="16.5" spans="1:2">
+      <c r="A21" s="2">
         <v>101110900</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
+    <row r="22" ht="16.5" spans="1:2">
+      <c r="A22" s="2">
         <v>101121100</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
+    <row r="23" ht="16.5" spans="1:2">
+      <c r="A23" s="2">
         <v>101130400</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
+    <row r="24" ht="16.5" spans="1:2">
+      <c r="A24" s="2">
         <v>101130500</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
+    <row r="25" ht="16.5" spans="1:2">
+      <c r="A25" s="2">
         <v>101132100</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
+    <row r="26" ht="16.5" spans="1:2">
+      <c r="A26" s="2">
         <v>101132700</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
+    <row r="27" ht="16.5" spans="1:2">
+      <c r="A27" s="2">
         <v>101161000</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
+    <row r="28" ht="16.5" spans="1:2">
+      <c r="A28" s="2">
         <v>101220200</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
+    <row r="29" ht="16.5" spans="1:2">
+      <c r="A29" s="2">
         <v>101220900</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
+    <row r="30" ht="16.5" spans="1:2">
+      <c r="A30" s="2">
         <v>101260500</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+    <row r="31" ht="16.5" spans="1:2">
+      <c r="A31" s="2">
         <v>101270900</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
+    <row r="32" ht="16.5" spans="1:2">
+      <c r="A32" s="2">
         <v>101290300</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
+    <row r="33" ht="16.5" spans="1:2">
+      <c r="A33" s="2">
         <v>101301000</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+    <row r="34" ht="16.5" spans="1:2">
+      <c r="A34" s="2">
         <v>101301300</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
+    <row r="35" ht="16.5" spans="1:2">
+      <c r="A35" s="2">
         <v>101311400</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
+    <row r="36" ht="16.5" spans="1:2">
+      <c r="A36" s="2">
         <v>101311800</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
+    <row r="37" ht="16.5" spans="1:2">
+      <c r="A37" s="2">
         <v>101040100</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
+    <row r="38" ht="16.5" spans="1:2">
+      <c r="A38" s="2">
         <v>101060100</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
+    <row r="39" ht="16.5" spans="1:2">
+      <c r="A39" s="2">
         <v>101071200</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
+    <row r="40" ht="16.5" spans="1:2">
+      <c r="A40" s="2">
         <v>101080500</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
+    <row r="41" ht="16.5" spans="1:2">
+      <c r="A41" s="2">
         <v>101090400</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
+    <row r="42" ht="16.5" spans="1:2">
+      <c r="A42" s="2">
         <v>101090700</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
+    <row r="43" ht="16.5" spans="1:2">
+      <c r="A43" s="2">
         <v>101100500</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
+    <row r="44" ht="16.5" spans="1:2">
+      <c r="A44" s="2">
         <v>101130300</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
+    <row r="45" ht="16.5" spans="1:2">
+      <c r="A45" s="2">
         <v>101140300</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
+    <row r="46" ht="16.5" spans="1:2">
+      <c r="A46" s="2">
         <v>101191100</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
+    <row r="47" ht="16.5" spans="1:2">
+      <c r="A47" s="2">
         <v>101221000</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
+    <row r="48" ht="16.5" spans="1:2">
+      <c r="A48" s="2">
         <v>101221500</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
+    <row r="49" ht="16.5" spans="1:2">
+      <c r="A49" s="2">
         <v>101250100</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
+    <row r="50" ht="16.5" spans="1:2">
+      <c r="A50" s="2">
         <v>101250500</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
+    <row r="51" ht="16.5" spans="1:2">
+      <c r="A51" s="2">
         <v>101250600</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
+    <row r="52" ht="16.5" spans="1:2">
+      <c r="A52" s="2">
         <v>101270100</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
+    <row r="53" ht="16.5" spans="1:2">
+      <c r="A53" s="2">
         <v>101281500</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
+    <row r="54" ht="16.5" spans="1:2">
+      <c r="A54" s="2">
         <v>101291700</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
+    <row r="55" ht="16.5" spans="1:2">
+      <c r="A55" s="2">
         <v>101300200</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
+    <row r="56" ht="16.5" spans="1:2">
+      <c r="A56" s="2">
         <v>101311200</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
+    <row r="57" ht="16.5" spans="1:2">
+      <c r="A57" s="2">
         <v>101311500</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
+    <row r="58" ht="16.5" spans="1:2">
+      <c r="A58" s="2">
         <v>101050800</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
+    <row r="59" ht="16.5" spans="1:2">
+      <c r="A59" s="2">
         <v>101051300</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
+    <row r="60" ht="16.5" spans="1:2">
+      <c r="A60" s="2">
         <v>101070200</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
+    <row r="61" ht="16.5" spans="1:2">
+      <c r="A61" s="2">
         <v>101070600</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
+    <row r="62" ht="16.5" spans="1:2">
+      <c r="A62" s="2">
         <v>101100200</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
+    <row r="63" ht="16.5" spans="1:2">
+      <c r="A63" s="2">
         <v>101120400</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
+    <row r="64" ht="16.5" spans="1:2">
+      <c r="A64" s="2">
         <v>101121200</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
+    <row r="65" ht="16.5" spans="1:2">
+      <c r="A65" s="2">
         <v>101160200</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
+    <row r="66" ht="16.5" spans="1:2">
+      <c r="A66" s="2">
         <v>101270600</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
+    <row r="67" ht="16.5" spans="1:2">
+      <c r="A67" s="2">
         <v>101271700</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
+    <row r="68" ht="16.5" spans="1:2">
+      <c r="A68" s="2">
         <v>101281600</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
+    <row r="69" ht="16.5" spans="1:2">
+      <c r="A69" s="2">
         <v>101282200</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
+    <row r="70" ht="16.5" spans="1:2">
+      <c r="A70" s="2">
         <v>101291300</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
+    <row r="71" ht="16.5" spans="1:2">
+      <c r="A71" s="2">
         <v>101291500</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
+    <row r="72" ht="16.5" spans="1:2">
+      <c r="A72" s="2">
         <v>101291600</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
+    <row r="73" ht="16.5" spans="1:2">
+      <c r="A73" s="2">
         <v>101310400</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
+    <row r="74" ht="16.5" spans="1:2">
+      <c r="A74" s="2">
         <v>101310900</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
+    <row r="75" ht="16.5" spans="1:2">
+      <c r="A75" s="2">
         <v>101311000</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
+    <row r="76" ht="16.5" spans="1:2">
+      <c r="A76" s="2">
         <v>101080600</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
+    <row r="77" ht="16.5" spans="1:2">
+      <c r="A77" s="2">
         <v>101200300</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
+    <row r="78" ht="16.5" spans="1:2">
+      <c r="A78" s="2">
         <v>101201300</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
+    <row r="79" ht="16.5" spans="1:2">
+      <c r="A79" s="2">
         <v>101070400</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
+    <row r="80" ht="16.5" spans="1:2">
+      <c r="A80" s="2">
         <v>101070900</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
+    <row r="81" ht="16.5" spans="1:2">
+      <c r="A81" s="2">
         <v>101220800</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
+    <row r="82" ht="16.5" spans="1:2">
+      <c r="A82" s="2">
         <v>101230100</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
+    <row r="83" ht="16.5" spans="1:2">
+      <c r="A83" s="2">
         <v>101240400</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
+    <row r="84" ht="16.5" spans="1:2">
+      <c r="A84" s="2">
         <v>101280800</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
+    <row r="85" ht="16.5" spans="1:2">
+      <c r="A85" s="2">
         <v>101301400</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
+    <row r="86" ht="16.5" spans="1:2">
+      <c r="A86" s="2">
         <v>101150600</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
+    <row r="87" ht="16.5" spans="1:2">
+      <c r="A87" s="2">
         <v>101161400</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
+    <row r="88" ht="16.5" spans="1:2">
+      <c r="A88" s="2">
         <v>101170400</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
+    <row r="89" ht="16.5" spans="1:2">
+      <c r="A89" s="2">
         <v>101240700</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
+    <row r="90" ht="16.5" spans="1:2">
+      <c r="A90" s="2">
         <v>101260100</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
+    <row r="91" ht="16.5" spans="1:2">
+      <c r="A91" s="2">
         <v>101270800</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
+    <row r="92" ht="16.5" spans="1:2">
+      <c r="A92" s="2">
         <v>101271800</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
+    <row r="93" ht="16.5" spans="1:2">
+      <c r="A93" s="2">
         <v>101272100</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
+    <row r="94" ht="16.5" spans="1:2">
+      <c r="A94" s="2">
         <v>101280100</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
+    <row r="95" ht="16.5" spans="1:2">
+      <c r="A95" s="2">
         <v>101300500</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
+    <row r="96" ht="16.5" spans="1:2">
+      <c r="A96" s="2">
         <v>101300800</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
+    <row r="97" ht="16.5" spans="1:2">
+      <c r="A97" s="2">
         <v>101050100</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
+    <row r="98" ht="16.5" spans="1:2">
+      <c r="A98" s="2">
         <v>101050600</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
+    <row r="99" ht="16.5" spans="1:2">
+      <c r="A99" s="2">
         <v>101051100</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
+    <row r="100" ht="16.5" spans="1:2">
+      <c r="A100" s="2">
         <v>101071400</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
+    <row r="101" ht="16.5" spans="1:2">
+      <c r="A101" s="2">
         <v>101080100</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
+    <row r="102" ht="16.5" spans="1:2">
+      <c r="A102" s="2">
         <v>101080700</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
+    <row r="103" ht="16.5" spans="1:2">
+      <c r="A103" s="2">
         <v>101090800</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
+    <row r="104" ht="16.5" spans="1:2">
+      <c r="A104" s="2">
         <v>101091000</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
+    <row r="105" ht="16.5" spans="1:2">
+      <c r="A105" s="2">
         <v>101110800</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
+    <row r="106" ht="16.5" spans="1:2">
+      <c r="A106" s="2">
         <v>101121000</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
+    <row r="107" ht="16.5" spans="1:2">
+      <c r="A107" s="2">
         <v>101130900</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
+    <row r="108" ht="16.5" spans="1:2">
+      <c r="A108" s="2">
         <v>101131300</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
+    <row r="109" ht="16.5" spans="1:2">
+      <c r="A109" s="2">
         <v>101132600</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
+    <row r="110" ht="16.5" spans="1:2">
+      <c r="A110" s="2">
         <v>101150200</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
+    <row r="111" ht="16.5" spans="1:2">
+      <c r="A111" s="2">
         <v>101150300</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
+    <row r="112" ht="16.5" spans="1:2">
+      <c r="A112" s="2">
         <v>101150400</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
+    <row r="113" ht="16.5" spans="1:2">
+      <c r="A113" s="2">
         <v>101150500</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
+    <row r="114" ht="16.5" spans="1:2">
+      <c r="A114" s="2">
         <v>101150800</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
+    <row r="115" ht="16.5" spans="1:2">
+      <c r="A115" s="2">
         <v>101181200</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
+    <row r="116" ht="16.5" spans="1:2">
+      <c r="A116" s="2">
         <v>101190900</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
+    <row r="117" ht="16.5" spans="1:2">
+      <c r="A117" s="2">
         <v>101200500</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
+    <row r="118" ht="16.5" spans="1:2">
+      <c r="A118" s="2">
         <v>101200600</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
+    <row r="119" ht="16.5" spans="1:2">
+      <c r="A119" s="2">
         <v>101210100</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
+    <row r="120" ht="16.5" spans="1:2">
+      <c r="A120" s="2">
         <v>101210200</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
+    <row r="121" ht="16.5" spans="1:2">
+      <c r="A121" s="2">
         <v>101220100</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
+    <row r="122" ht="16.5" spans="1:2">
+      <c r="A122" s="2">
         <v>101220400</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
+    <row r="123" ht="16.5" spans="1:2">
+      <c r="A123" s="2">
         <v>101221100</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
+    <row r="124" ht="16.5" spans="1:2">
+      <c r="A124" s="2">
         <v>101221600</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
+    <row r="125" ht="16.5" spans="1:2">
+      <c r="A125" s="2">
         <v>101250400</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
+    <row r="126" ht="16.5" spans="1:2">
+      <c r="A126" s="2">
         <v>101251200</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
+    <row r="127" ht="16.5" spans="1:2">
+      <c r="A127" s="2">
         <v>101280300</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
+    <row r="128" ht="16.5" spans="1:2">
+      <c r="A128" s="2">
         <v>101281200</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
+    <row r="129" ht="16.5" spans="1:2">
+      <c r="A129" s="2">
         <v>101291200</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
+    <row r="130" ht="16.5" spans="1:2">
+      <c r="A130" s="2">
         <v>101300700</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
+    <row r="131" ht="16.5" spans="1:2">
+      <c r="A131" s="2">
         <v>101301200</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
+    <row r="132" ht="16.5" spans="1:2">
+      <c r="A132" s="2">
         <v>101310100</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
+    <row r="133" ht="16.5" spans="1:2">
+      <c r="A133" s="2">
         <v>101050400</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
+    <row r="134" ht="16.5" spans="1:2">
+      <c r="A134" s="2">
         <v>101051000</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
+    <row r="135" ht="16.5" spans="1:2">
+      <c r="A135" s="2">
         <v>101060200</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
+    <row r="136" ht="16.5" spans="1:2">
+      <c r="A136" s="2">
         <v>101070700</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
+    <row r="137" ht="16.5" spans="1:2">
+      <c r="A137" s="2">
         <v>101100400</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
+    <row r="138" ht="16.5" spans="1:2">
+      <c r="A138" s="2">
         <v>101100600</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
+    <row r="139" ht="16.5" spans="1:2">
+      <c r="A139" s="2">
         <v>101120100</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
+    <row r="140" ht="16.5" spans="1:2">
+      <c r="A140" s="2">
         <v>101120700</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
+    <row r="141" ht="16.5" spans="1:2">
+      <c r="A141" s="2">
         <v>101160600</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
+    <row r="142" ht="16.5" spans="1:2">
+      <c r="A142" s="2">
         <v>101160800</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
+    <row r="143" ht="16.5" spans="1:2">
+      <c r="A143" s="2">
         <v>101161200</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
+    <row r="144" ht="16.5" spans="1:2">
+      <c r="A144" s="2">
         <v>101181100</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
+    <row r="145" ht="16.5" spans="1:2">
+      <c r="A145" s="2">
         <v>101181800</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
+    <row r="146" ht="16.5" spans="1:2">
+      <c r="A146" s="2">
         <v>101200800</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
+    <row r="147" ht="16.5" spans="1:2">
+      <c r="A147" s="2">
         <v>101201200</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
+    <row r="148" ht="16.5" spans="1:2">
+      <c r="A148" s="2">
         <v>101210300</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
+    <row r="149" ht="16.5" spans="1:2">
+      <c r="A149" s="2">
         <v>101210900</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
+    <row r="150" ht="16.5" spans="1:2">
+      <c r="A150" s="2">
         <v>101240200</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
+    <row r="151" ht="16.5" spans="1:2">
+      <c r="A151" s="2">
         <v>101240600</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
+    <row r="152" ht="16.5" spans="1:2">
+      <c r="A152" s="2">
         <v>101240800</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
+    <row r="153" ht="16.5" spans="1:2">
+      <c r="A153" s="2">
         <v>101281100</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
+    <row r="154" ht="16.5" spans="1:2">
+      <c r="A154" s="2">
         <v>101281900</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
+    <row r="155" ht="16.5" spans="1:2">
+      <c r="A155" s="2">
         <v>101130200</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
+    <row r="156" ht="16.5" spans="1:2">
+      <c r="A156" s="2">
         <v>101131100</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
+    <row r="157" ht="16.5" spans="1:2">
+      <c r="A157" s="2">
         <v>101131200</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
+    <row r="158" ht="16.5" spans="1:2">
+      <c r="A158" s="2">
         <v>101132200</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
+    <row r="159" ht="16.5" spans="1:2">
+      <c r="A159" s="2">
         <v>101132300</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
+    <row r="160" ht="16.5" spans="1:2">
+      <c r="A160" s="2">
         <v>101180800</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
+    <row r="161" ht="16.5" spans="1:2">
+      <c r="A161" s="2">
         <v>101290100</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162">
+    <row r="162" ht="16.5" spans="1:2">
+      <c r="A162" s="2">
         <v>101060600</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
+    <row r="163" ht="16.5" spans="1:2">
+      <c r="A163" s="2">
         <v>101071000</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
+    <row r="164" ht="16.5" spans="1:2">
+      <c r="A164" s="2">
         <v>101090600</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165">
+    <row r="165" ht="16.5" spans="1:2">
+      <c r="A165" s="2">
         <v>101100700</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
+    <row r="166" ht="16.5" spans="1:2">
+      <c r="A166" s="2">
         <v>101101100</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
+    <row r="167" ht="16.5" spans="1:2">
+      <c r="A167" s="2">
         <v>101120900</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
+    <row r="168" ht="16.5" spans="1:2">
+      <c r="A168" s="2">
         <v>101121700</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169">
+    <row r="169" ht="16.5" spans="1:2">
+      <c r="A169" s="2">
         <v>101140100</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170">
+    <row r="170" ht="16.5" spans="1:2">
+      <c r="A170" s="2">
         <v>101140400</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171">
+    <row r="171" ht="16.5" spans="1:2">
+      <c r="A171" s="2">
         <v>101160100</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172">
+    <row r="172" ht="16.5" spans="1:2">
+      <c r="A172" s="2">
         <v>101161100</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173">
+    <row r="173" ht="16.5" spans="1:2">
+      <c r="A173" s="2">
         <v>101161300</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174">
+    <row r="174" ht="16.5" spans="1:2">
+      <c r="A174" s="2">
         <v>101180900</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
+    <row r="175" ht="16.5" spans="1:2">
+      <c r="A175" s="2">
         <v>101181500</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176">
+    <row r="176" ht="16.5" spans="1:2">
+      <c r="A176" s="2">
         <v>101191000</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
+    <row r="177" ht="16.5" spans="1:2">
+      <c r="A177" s="2">
         <v>101210800</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
+    <row r="178" ht="16.5" spans="1:2">
+      <c r="A178" s="2">
         <v>101221400</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
+    <row r="179" ht="16.5" spans="1:2">
+      <c r="A179" s="2">
         <v>101230700</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
+    <row r="180" ht="16.5" spans="1:2">
+      <c r="A180" s="2">
         <v>101250800</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
+    <row r="181" ht="16.5" spans="1:2">
+      <c r="A181" s="2">
         <v>101260600</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
+    <row r="182" ht="16.5" spans="1:2">
+      <c r="A182" s="2">
         <v>101271000</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
+    <row r="183" ht="16.5" spans="1:2">
+      <c r="A183" s="2">
         <v>101271400</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
+    <row r="184" ht="16.5" spans="1:2">
+      <c r="A184" s="2">
         <v>101272000</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
+    <row r="185" ht="16.5" spans="1:2">
+      <c r="A185" s="2">
         <v>101290800</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
+    <row r="186" ht="16.5" spans="1:2">
+      <c r="A186" s="2">
         <v>101290900</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
+    <row r="187" ht="16.5" spans="1:2">
+      <c r="A187" s="2">
         <v>101300300</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
+    <row r="188" ht="16.5" spans="1:2">
+      <c r="A188" s="2">
         <v>101300400</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
+    <row r="189" ht="16.5" spans="1:2">
+      <c r="A189" s="2">
         <v>101311300</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
+    <row r="190" ht="16.5" spans="1:2">
+      <c r="A190" s="2">
         <v>101311600</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
+    <row r="191" ht="16.5" spans="1:2">
+      <c r="A191" s="2">
         <v>101311700</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
+    <row r="192" ht="16.5" spans="1:2">
+      <c r="A192" s="2">
         <v>101050300</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193">
+    <row r="193" ht="16.5" spans="1:2">
+      <c r="A193" s="2">
         <v>101220500</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
+    <row r="194" ht="16.5" spans="1:2">
+      <c r="A194" s="2">
         <v>101270400</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195">
+    <row r="195" ht="16.5" spans="1:2">
+      <c r="A195" s="2">
         <v>101271500</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
+    <row r="196" ht="16.5" spans="1:2">
+      <c r="A196" s="2">
         <v>101280400</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197">
+    <row r="197" ht="16.5" spans="1:2">
+      <c r="A197" s="2">
         <v>101282000</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198">
+    <row r="198" ht="16.5" spans="1:2">
+      <c r="A198" s="2">
         <v>101140600</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199">
+    <row r="199" ht="16.5" spans="1:2">
+      <c r="A199" s="2">
         <v>101180700</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200">
+    <row r="200" ht="16.5" spans="1:2">
+      <c r="A200" s="2">
         <v>101190100</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201">
+    <row r="201" ht="16.5" spans="1:2">
+      <c r="A201" s="2">
         <v>101190500</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202">
+    <row r="202" ht="16.5" spans="1:2">
+      <c r="A202" s="2">
         <v>101210400</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
+    <row r="203" ht="16.5" spans="1:2">
+      <c r="A203" s="2">
         <v>101230300</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204">
+    <row r="204" ht="16.5" spans="1:2">
+      <c r="A204" s="2">
         <v>101230900</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205">
+    <row r="205" ht="16.5" spans="1:2">
+      <c r="A205" s="2">
         <v>101240100</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206">
+    <row r="206" ht="16.5" spans="1:2">
+      <c r="A206" s="2">
         <v>101270500</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207">
+    <row r="207" ht="16.5" spans="1:2">
+      <c r="A207" s="2">
         <v>101271200</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208">
+    <row r="208" ht="16.5" spans="1:2">
+      <c r="A208" s="2">
         <v>101291400</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
+    <row r="209" ht="16.5" spans="1:2">
+      <c r="A209" s="2">
         <v>101300100</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210">
+    <row r="210" ht="16.5" spans="1:2">
+      <c r="A210" s="2">
         <v>101071300</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
+    <row r="211" ht="16.5" spans="1:2">
+      <c r="A211" s="2">
         <v>101160300</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212">
+    <row r="212" ht="16.5" spans="1:2">
+      <c r="A212" s="2">
         <v>101180500</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213">
+    <row r="213" ht="16.5" spans="1:2">
+      <c r="A213" s="2">
         <v>101181300</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214">
+    <row r="214" ht="16.5" spans="1:2">
+      <c r="A214" s="2">
         <v>101230400</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215">
+    <row r="215" ht="16.5" spans="1:2">
+      <c r="A215" s="2">
         <v>101240900</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216">
+    <row r="216" ht="16.5" spans="1:2">
+      <c r="A216" s="2">
         <v>101270200</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
+    <row r="217" ht="16.5" spans="1:2">
+      <c r="A217" s="2">
         <v>101290500</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
+    <row r="218" ht="16.5" spans="1:2">
+      <c r="A218" s="2">
         <v>101050200</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219">
+    <row r="219" ht="16.5" spans="1:2">
+      <c r="A219" s="2">
         <v>101050900</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220">
+    <row r="220" ht="16.5" spans="1:2">
+      <c r="A220" s="2">
         <v>101091100</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
+    <row r="221" ht="16.5" spans="1:2">
+      <c r="A221" s="2">
         <v>101120200</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
+    <row r="222" ht="16.5" spans="1:2">
+      <c r="A222" s="2">
         <v>101160400</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
+    <row r="223" ht="16.5" spans="1:2">
+      <c r="A223" s="2">
         <v>101201500</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
+    <row r="224" ht="16.5" spans="1:2">
+      <c r="A224" s="2">
         <v>101211000</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
+    <row r="225" ht="16.5" spans="1:2">
+      <c r="A225" s="2">
         <v>101230500</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
+    <row r="226" ht="16.5" spans="1:2">
+      <c r="A226" s="2">
         <v>101260700</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
+    <row r="227" ht="16.5" spans="1:2">
+      <c r="A227" s="2">
         <v>101260800</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
+    <row r="228" ht="16.5" spans="1:2">
+      <c r="A228" s="2">
         <v>101260900</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
+    <row r="229" ht="16.5" spans="1:2">
+      <c r="A229" s="2">
         <v>101281300</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
+    <row r="230" ht="16.5" spans="1:2">
+      <c r="A230" s="2">
         <v>101290200</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
+    <row r="231" ht="16.5" spans="1:2">
+      <c r="A231" s="2">
         <v>101301100</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
+    <row r="232" ht="16.5" spans="1:2">
+      <c r="A232" s="2">
         <v>101310600</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
+    <row r="233" ht="16.5" spans="1:2">
+      <c r="A233" s="2">
         <v>101311900</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
+    <row r="234" ht="16.5" spans="1:2">
+      <c r="A234" s="2">
         <v>101121500</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
+    <row r="235" ht="16.5" spans="1:2">
+      <c r="A235" s="2">
         <v>101140200</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
+    <row r="236" ht="16.5" spans="1:2">
+      <c r="A236" s="2">
         <v>101020100</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
+    <row r="237" ht="16.5" spans="1:2">
+      <c r="A237" s="2">
         <v>101050500</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
+    <row r="238" ht="16.5" spans="1:2">
+      <c r="A238" s="2">
         <v>101051200</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
+    <row r="239" ht="16.5" spans="1:2">
+      <c r="A239" s="2">
         <v>101060300</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
+    <row r="240" ht="16.5" spans="1:2">
+      <c r="A240" s="2">
         <v>101060700</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
+    <row r="241" ht="16.5" spans="1:2">
+      <c r="A241" s="2">
         <v>101070100</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
+    <row r="242" ht="16.5" spans="1:2">
+      <c r="A242" s="2">
         <v>101090100</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
+    <row r="243" ht="16.5" spans="1:2">
+      <c r="A243" s="2">
         <v>101100900</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
+    <row r="244" ht="16.5" spans="1:2">
+      <c r="A244" s="2">
         <v>101110600</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
+    <row r="245" ht="16.5" spans="1:2">
+      <c r="A245" s="2">
         <v>101131600</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
+    <row r="246" ht="16.5" spans="1:2">
+      <c r="A246" s="2">
         <v>101132400</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
+    <row r="247" ht="16.5" spans="1:2">
+      <c r="A247" s="2">
         <v>101140500</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
+    <row r="248" ht="16.5" spans="1:2">
+      <c r="A248" s="2">
         <v>101170200</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
+    <row r="249" ht="16.5" spans="1:2">
+      <c r="A249" s="2">
         <v>101181000</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
+    <row r="250" ht="16.5" spans="1:2">
+      <c r="A250" s="2">
         <v>101181700</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
-      <c r="A251">
+    <row r="251" ht="16.5" spans="1:2">
+      <c r="A251" s="2">
         <v>101190400</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
-      <c r="A252">
+    <row r="252" ht="16.5" spans="1:2">
+      <c r="A252" s="2">
         <v>101191300</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
-      <c r="A253">
+    <row r="253" ht="16.5" spans="1:2">
+      <c r="A253" s="2">
         <v>101201000</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254">
+    <row r="254" ht="16.5" spans="1:2">
+      <c r="A254" s="2">
         <v>101201100</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255">
+    <row r="255" ht="16.5" spans="1:2">
+      <c r="A255" s="2">
         <v>101201700</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256">
+    <row r="256" ht="16.5" spans="1:2">
+      <c r="A256" s="2">
         <v>101210500</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257">
+    <row r="257" ht="16.5" spans="1:2">
+      <c r="A257" s="2">
         <v>101220700</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
-      <c r="A258">
+    <row r="258" ht="16.5" spans="1:2">
+      <c r="A258" s="2">
         <v>101230800</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259">
+    <row r="259" ht="16.5" spans="1:2">
+      <c r="A259" s="2">
         <v>101240300</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260">
+    <row r="260" ht="16.5" spans="1:2">
+      <c r="A260" s="2">
         <v>101250900</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261">
+    <row r="261" ht="16.5" spans="1:2">
+      <c r="A261" s="2">
         <v>101270700</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262">
+    <row r="262" ht="16.5" spans="1:2">
+      <c r="A262" s="2">
         <v>101280200</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
-      <c r="A263">
+    <row r="263" ht="16.5" spans="1:2">
+      <c r="A263" s="2">
         <v>101280500</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264">
+    <row r="264" ht="16.5" spans="1:2">
+      <c r="A264" s="2">
         <v>101280600</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
-      <c r="A265">
+    <row r="265" ht="16.5" spans="1:2">
+      <c r="A265" s="2">
         <v>101282100</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
-      <c r="A266">
+    <row r="266" ht="16.5" spans="1:2">
+      <c r="A266" s="2">
         <v>101310200</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
-      <c r="A267">
+    <row r="267" ht="16.5" spans="1:2">
+      <c r="A267" s="2">
         <v>101310300</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268">
+    <row r="268" ht="16.5" spans="1:2">
+      <c r="A268" s="2">
         <v>101030100</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
-      <c r="A269">
+    <row r="269" ht="16.5" spans="1:2">
+      <c r="A269" s="2">
         <v>101060400</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="3" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270">
+    <row r="270" ht="16.5" spans="1:2">
+      <c r="A270" s="2">
         <v>101071100</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
-      <c r="A271">
+    <row r="271" ht="16.5" spans="1:2">
+      <c r="A271" s="2">
         <v>101080400</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
-      <c r="A272">
+    <row r="272" ht="16.5" spans="1:2">
+      <c r="A272" s="2">
         <v>101090500</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2">
-      <c r="A273">
+    <row r="273" ht="16.5" spans="1:2">
+      <c r="A273" s="2">
         <v>101100100</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="3" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2">
-      <c r="A274">
+    <row r="274" ht="16.5" spans="1:2">
+      <c r="A274" s="2">
         <v>101111000</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="3" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2">
-      <c r="A275">
+    <row r="275" ht="16.5" spans="1:2">
+      <c r="A275" s="2">
         <v>101120800</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276">
+    <row r="276" ht="16.5" spans="1:2">
+      <c r="A276" s="2">
         <v>101130800</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277">
+    <row r="277" ht="16.5" spans="1:2">
+      <c r="A277" s="2">
         <v>101131400</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2">
-      <c r="A278">
+    <row r="278" ht="16.5" spans="1:2">
+      <c r="A278" s="2">
         <v>101131800</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279">
+    <row r="279" ht="16.5" spans="1:2">
+      <c r="A279" s="2">
         <v>101132000</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2">
-      <c r="A280">
+    <row r="280" ht="16.5" spans="1:2">
+      <c r="A280" s="2">
         <v>101160900</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2">
-      <c r="A281">
+    <row r="281" ht="16.5" spans="1:2">
+      <c r="A281" s="2">
         <v>101191200</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282">
+    <row r="282" ht="16.5" spans="1:2">
+      <c r="A282" s="2">
         <v>101201600</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2">
-      <c r="A283">
+    <row r="283" ht="16.5" spans="1:2">
+      <c r="A283" s="2">
         <v>101210600</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2">
-      <c r="A284">
+    <row r="284" ht="16.5" spans="1:2">
+      <c r="A284" s="2">
         <v>101221200</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2">
-      <c r="A285">
+    <row r="285" ht="16.5" spans="1:2">
+      <c r="A285" s="2">
         <v>101260400</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2">
-      <c r="A286">
+    <row r="286" ht="16.5" spans="1:2">
+      <c r="A286" s="2">
         <v>101311100</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2">
-      <c r="A287">
+    <row r="287" ht="16.5" spans="1:2">
+      <c r="A287" s="2">
         <v>101341100</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2">
-      <c r="A288">
+    <row r="288" ht="16.5" spans="1:2">
+      <c r="A288" s="2">
         <v>101080300</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2">
-      <c r="A289">
+    <row r="289" ht="16.5" spans="1:2">
+      <c r="A289" s="2">
         <v>101080900</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2">
-      <c r="A290">
+    <row r="290" ht="16.5" spans="1:2">
+      <c r="A290" s="2">
         <v>101110500</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2">
-      <c r="A291">
+    <row r="291" ht="16.5" spans="1:2">
+      <c r="A291" s="2">
         <v>101120600</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2">
-      <c r="A292">
+    <row r="292" ht="16.5" spans="1:2">
+      <c r="A292" s="2">
         <v>101121300</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2">
-      <c r="A293">
+    <row r="293" ht="16.5" spans="1:2">
+      <c r="A293" s="2">
         <v>101130100</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2">
-      <c r="A294">
+    <row r="294" ht="16.5" spans="1:2">
+      <c r="A294" s="2">
         <v>101131900</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295">
+    <row r="295" ht="16.5" spans="1:2">
+      <c r="A295" s="2">
         <v>101160500</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2">
-      <c r="A296">
+    <row r="296" ht="16.5" spans="1:2">
+      <c r="A296" s="2">
         <v>101170300</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2">
-      <c r="A297">
+    <row r="297" ht="16.5" spans="1:2">
+      <c r="A297" s="2">
         <v>101190200</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2">
-      <c r="A298">
+    <row r="298" ht="16.5" spans="1:2">
+      <c r="A298" s="2">
         <v>101200100</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299">
+    <row r="299" ht="16.5" spans="1:2">
+      <c r="A299" s="2">
         <v>101210700</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300">
+    <row r="300" ht="16.5" spans="1:2">
+      <c r="A300" s="2">
         <v>101220300</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301">
+    <row r="301" ht="16.5" spans="1:2">
+      <c r="A301" s="2">
         <v>101291100</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2">
-      <c r="A302">
+    <row r="302" ht="16.5" spans="1:2">
+      <c r="A302" s="2">
         <v>101300600</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2">
-      <c r="A303">
+    <row r="303" ht="16.5" spans="1:2">
+      <c r="A303" s="2">
         <v>101310500</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304">
+    <row r="304" ht="16.5" spans="1:2">
+      <c r="A304" s="2">
         <v>101310700</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305">
+    <row r="305" ht="16.5" spans="1:2">
+      <c r="A305" s="2">
         <v>101310800</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306">
+    <row r="306" ht="16.5" spans="1:2">
+      <c r="A306" s="2">
         <v>101081000</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2">
-      <c r="A307">
+    <row r="307" ht="16.5" spans="1:2">
+      <c r="A307" s="2">
         <v>101081100</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="3" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2">
-      <c r="A308">
+    <row r="308" ht="16.5" spans="1:2">
+      <c r="A308" s="2">
         <v>101090900</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2">
-      <c r="A309">
+    <row r="309" ht="16.5" spans="1:2">
+      <c r="A309" s="2">
         <v>101101000</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2">
-      <c r="A310">
+    <row r="310" ht="16.5" spans="1:2">
+      <c r="A310" s="2">
         <v>101110100</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2">
-      <c r="A311">
+    <row r="311" ht="16.5" spans="1:2">
+      <c r="A311" s="2">
         <v>101110200</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
-      <c r="A312">
+    <row r="312" ht="16.5" spans="1:2">
+      <c r="A312" s="2">
         <v>101132500</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313">
+    <row r="313" ht="16.5" spans="1:2">
+      <c r="A313" s="2">
         <v>101150100</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2">
-      <c r="A314">
+    <row r="314" ht="16.5" spans="1:2">
+      <c r="A314" s="2">
         <v>101180300</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2">
-      <c r="A315">
+    <row r="315" ht="16.5" spans="1:2">
+      <c r="A315" s="2">
         <v>101180400</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2">
-      <c r="A316">
+    <row r="316" ht="16.5" spans="1:2">
+      <c r="A316" s="2">
         <v>101180600</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317">
+    <row r="317" ht="16.5" spans="1:2">
+      <c r="A317" s="2">
         <v>101190800</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2">
-      <c r="A318">
+    <row r="318" ht="16.5" spans="1:2">
+      <c r="A318" s="2">
         <v>101200200</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2">
-      <c r="A319">
+    <row r="319" ht="16.5" spans="1:2">
+      <c r="A319" s="2">
         <v>101200400</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2">
-      <c r="A320">
+    <row r="320" ht="16.5" spans="1:2">
+      <c r="A320" s="2">
         <v>101200700</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2">
-      <c r="A321">
+    <row r="321" ht="16.5" spans="1:2">
+      <c r="A321" s="2">
         <v>101201400</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322">
+    <row r="322" ht="16.5" spans="1:2">
+      <c r="A322" s="2">
         <v>101221300</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2">
-      <c r="A323">
+    <row r="323" ht="16.5" spans="1:2">
+      <c r="A323" s="2">
         <v>101230200</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2">
-      <c r="A324">
+    <row r="324" ht="16.5" spans="1:2">
+      <c r="A324" s="2">
         <v>101241000</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2">
-      <c r="A325">
+    <row r="325" ht="16.5" spans="1:2">
+      <c r="A325" s="2">
         <v>101250200</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2">
-      <c r="A326">
+    <row r="326" ht="16.5" spans="1:2">
+      <c r="A326" s="2">
         <v>101251400</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2">
-      <c r="A327">
+    <row r="327" ht="16.5" spans="1:2">
+      <c r="A327" s="2">
         <v>101291000</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2">
-      <c r="A328">
+    <row r="328" ht="16.5" spans="1:2">
+      <c r="A328" s="2">
         <v>101320300</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2">
-      <c r="A329">
+    <row r="329" ht="16.5" spans="1:2">
+      <c r="A329" s="2">
         <v>101050700</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2">
-      <c r="A330">
+    <row r="330" ht="16.5" spans="1:2">
+      <c r="A330" s="2">
         <v>101060900</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2">
-      <c r="A331">
+    <row r="331" ht="16.5" spans="1:2">
+      <c r="A331" s="2">
         <v>101070800</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2">
-      <c r="A332">
+    <row r="332" ht="16.5" spans="1:2">
+      <c r="A332" s="2">
         <v>101100300</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2">
-      <c r="A333">
+    <row r="333" ht="16.5" spans="1:2">
+      <c r="A333" s="2">
         <v>101100800</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2">
-      <c r="A334">
+    <row r="334" ht="16.5" spans="1:2">
+      <c r="A334" s="2">
         <v>101110300</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2">
-      <c r="A335">
+    <row r="335" ht="16.5" spans="1:2">
+      <c r="A335" s="2">
         <v>101110400</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="A336">
+    <row r="336" ht="16.5" spans="1:2">
+      <c r="A336" s="2">
         <v>101120500</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2">
-      <c r="A337">
+    <row r="337" ht="16.5" spans="1:2">
+      <c r="A337" s="2">
         <v>101130600</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2">
-      <c r="A338">
+    <row r="338" ht="16.5" spans="1:2">
+      <c r="A338" s="2">
         <v>101150700</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2">
-      <c r="A339">
+    <row r="339" ht="16.5" spans="1:2">
+      <c r="A339" s="2">
         <v>101170100</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2">
-      <c r="A340">
+    <row r="340" ht="16.5" spans="1:2">
+      <c r="A340" s="2">
         <v>101190600</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2">
-      <c r="A341">
+    <row r="341" ht="16.5" spans="1:2">
+      <c r="A341" s="2">
         <v>101190700</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2">
-      <c r="A342">
+    <row r="342" ht="16.5" spans="1:2">
+      <c r="A342" s="2">
         <v>101200900</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2">
-      <c r="A343">
+    <row r="343" ht="16.5" spans="1:2">
+      <c r="A343" s="2">
         <v>101240500</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2">
-      <c r="A344">
+    <row r="344" ht="16.5" spans="1:2">
+      <c r="A344" s="2">
         <v>101241100</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2">
-      <c r="A345">
+    <row r="345" ht="16.5" spans="1:2">
+      <c r="A345" s="2">
         <v>101250700</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2">
-      <c r="A346">
+    <row r="346" ht="16.5" spans="1:2">
+      <c r="A346" s="2">
         <v>101251000</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2">
-      <c r="A347">
+    <row r="347" ht="16.5" spans="1:2">
+      <c r="A347" s="2">
         <v>101251300</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2">
-      <c r="A348">
+    <row r="348" ht="16.5" spans="1:2">
+      <c r="A348" s="2">
         <v>101271100</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2">
-      <c r="A349">
+    <row r="349" ht="16.5" spans="1:2">
+      <c r="A349" s="2">
         <v>101271600</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2">
-      <c r="A350">
+    <row r="350" ht="16.5" spans="1:2">
+      <c r="A350" s="2">
         <v>101281400</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2">
-      <c r="A351">
+    <row r="351" ht="16.5" spans="1:2">
+      <c r="A351" s="2">
         <v>101281800</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2">
-      <c r="A352">
+    <row r="352" ht="16.5" spans="1:2">
+      <c r="A352" s="2">
         <v>101290400</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2">
-      <c r="A353">
+    <row r="353" ht="16.5" spans="1:2">
+      <c r="A353" s="2">
         <v>101300900</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2">
-      <c r="A354">
+    <row r="354" ht="16.5" spans="1:2">
+      <c r="A354" s="2">
         <v>101090300</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2">
-      <c r="A355">
+    <row r="355" ht="16.5" spans="1:2">
+      <c r="A355" s="2">
         <v>101120300</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2">
-      <c r="A356">
+    <row r="356" ht="16.5" spans="1:2">
+      <c r="A356" s="2">
         <v>101121400</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2">
-      <c r="A357">
+    <row r="357" ht="16.5" spans="1:2">
+      <c r="A357" s="2">
         <v>101160700</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2">
-      <c r="A358">
+    <row r="358" ht="16.5" spans="1:2">
+      <c r="A358" s="2">
         <v>101170500</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2">
-      <c r="A359">
+    <row r="359" ht="16.5" spans="1:2">
+      <c r="A359" s="2">
         <v>101180100</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2">
-      <c r="A360">
+    <row r="360" ht="16.5" spans="1:2">
+      <c r="A360" s="2">
         <v>101181400</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2">
-      <c r="A361">
+    <row r="361" ht="16.5" spans="1:2">
+      <c r="A361" s="2">
         <v>101181600</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2">
-      <c r="A362">
+    <row r="362" ht="16.5" spans="1:2">
+      <c r="A362" s="2">
         <v>101190300</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2">
-      <c r="A363">
+    <row r="363" ht="16.5" spans="1:2">
+      <c r="A363" s="2">
         <v>101211100</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2">
-      <c r="A364">
+    <row r="364" ht="16.5" spans="1:2">
+      <c r="A364" s="2">
         <v>101230600</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2">
-      <c r="A365">
+    <row r="365" ht="16.5" spans="1:2">
+      <c r="A365" s="2">
         <v>101250300</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2">
-      <c r="A366">
+    <row r="366" ht="16.5" spans="1:2">
+      <c r="A366" s="2">
         <v>101251100</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2">
-      <c r="A367">
+    <row r="367" ht="16.5" spans="1:2">
+      <c r="A367" s="2">
         <v>101260200</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2">
-      <c r="A368">
+    <row r="368" ht="16.5" spans="1:2">
+      <c r="A368" s="2">
         <v>101270300</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2">
-      <c r="A369">
+    <row r="369" ht="16.5" spans="1:2">
+      <c r="A369" s="2">
         <v>101271300</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2">
-      <c r="A370">
+    <row r="370" ht="16.5" spans="1:2">
+      <c r="A370" s="2">
         <v>101280700</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2">
-      <c r="A371">
+    <row r="371" ht="16.5" spans="1:2">
+      <c r="A371" s="2">
         <v>101280900</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2">
-      <c r="A372">
+    <row r="372" ht="16.5" spans="1:2">
+      <c r="A372" s="2">
         <v>101281000</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2">
-      <c r="A373">
+    <row r="373" ht="16.5" spans="1:2">
+      <c r="A373" s="2">
         <v>101281700</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2">
-      <c r="A374">
+    <row r="374" ht="16.5" spans="1:2">
+      <c r="A374" s="2">
         <v>101290700</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="3" t="s">
         <v>374</v>
       </c>
     </row>
